--- a/jyx2/Assets/Mods/PLUS/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/武功.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17805"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="201">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -649,16 +649,19 @@
   <si>
     <t>暗器</t>
   </si>
+  <si>
+    <t>小白</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -689,21 +692,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -711,7 +699,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,18 +710,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,6 +772,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -795,6 +790,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,18 +818,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,42 +855,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -900,7 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,13 +879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,19 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,37 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,7 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,7 +945,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,13 +981,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,15 +1060,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,6 +1090,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,157 +1166,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1731,13 +1734,13 @@
   <sheetPr/>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A72" sqref="$A72:$XFD72"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="112.044247787611" customWidth="1"/>
+    <col min="7" max="7" width="112.046296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3999,7 +4002,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" ht="13.85" spans="1:7">
+    <row r="100" ht="15" spans="1:7">
       <c r="A100" s="3">
         <v>96</v>
       </c>
@@ -4045,14 +4048,28 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+    <row r="102" customFormat="1" spans="1:7">
+      <c r="A102" s="3">
+        <v>140</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="3"/>

--- a/jyx2/Assets/Mods/PLUS/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/武功.xlsx
@@ -536,7 +536,7 @@
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|150,1,0,0,0</t>
   </si>
   <si>
-    <t>大蜘珠</t>
+    <t>大蜘蛛</t>
   </si>
   <si>
     <t>10,1,0,0,0|20,1,0,0,0|30,1,0,0,0|40,1,0,0,0|50,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,1,0,0,0|90,1,0,0,0|150,1,0,0,0</t>
@@ -1734,8 +1734,8 @@
   <sheetPr/>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3546,7 +3546,7 @@
       <c r="A80" s="3">
         <v>76</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C80" s="3">
@@ -3799,7 +3799,7 @@
       <c r="A91" s="3">
         <v>87</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C91" s="3">
